--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.09494813238296555</v>
+        <v>0.1072470739083369</v>
       </c>
       <c r="C2">
-        <v>0.5332219804412588</v>
+        <v>0.583924513487991</v>
       </c>
       <c r="D2">
-        <v>0.4006434568944247</v>
+        <v>0.5944036395536997</v>
       </c>
       <c r="E2">
-        <v>0.6329640249606803</v>
+        <v>0.7709757710549013</v>
       </c>
       <c r="F2">
-        <v>0.6398668578903548</v>
+        <v>0.7806389925716273</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01602953393462571</v>
+        <v>0.573629067650584</v>
       </c>
       <c r="C3">
-        <v>0.5143741298588096</v>
+        <v>0.8880024064378264</v>
       </c>
       <c r="D3">
-        <v>0.4182794719077274</v>
+        <v>3.979434659499331</v>
       </c>
       <c r="E3">
-        <v>0.6467452913688103</v>
+        <v>1.994852039500507</v>
       </c>
       <c r="F3">
-        <v>0.6617615586588519</v>
+        <v>1.953538050233822</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1085716555968761</v>
+        <v>0.228737977167174</v>
       </c>
       <c r="C4">
-        <v>0.452885312363856</v>
+        <v>1.392066633737142</v>
       </c>
       <c r="D4">
-        <v>0.3549274518830394</v>
+        <v>7.304711183963507</v>
       </c>
       <c r="E4">
-        <v>0.5957578802525733</v>
+        <v>2.702722920308981</v>
       </c>
       <c r="F4">
-        <v>0.6002471406497429</v>
+        <v>2.753551201305114</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1299845358620406</v>
+        <v>0.1376631994370348</v>
       </c>
       <c r="C5">
-        <v>0.608575057432829</v>
+        <v>1.217887797378426</v>
       </c>
       <c r="D5">
-        <v>0.5363125488530067</v>
+        <v>7.521227355969471</v>
       </c>
       <c r="E5">
-        <v>0.7323336322012028</v>
+        <v>2.742485616365101</v>
       </c>
       <c r="F5">
-        <v>0.7394283491068494</v>
+        <v>2.80058721592678</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07656759945532947</v>
+        <v>0.256355043509169</v>
       </c>
       <c r="C6">
-        <v>0.3700814829430278</v>
+        <v>1.359960095653506</v>
       </c>
       <c r="D6">
-        <v>0.2616870517883947</v>
+        <v>7.005699073826143</v>
       </c>
       <c r="E6">
-        <v>0.5115535668807273</v>
+        <v>2.646828115655821</v>
       </c>
       <c r="F6">
-        <v>0.5196507713807427</v>
+        <v>2.693591441706439</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2093201528469608</v>
+        <v>0.09029628155329977</v>
       </c>
       <c r="C7">
-        <v>0.5868146440123966</v>
+        <v>1.369716599985631</v>
       </c>
       <c r="D7">
-        <v>0.5026012083360064</v>
+        <v>7.335564264182292</v>
       </c>
       <c r="E7">
-        <v>0.7089437271998437</v>
+        <v>2.708424683128976</v>
       </c>
       <c r="F7">
-        <v>0.6969746841155865</v>
+        <v>2.767756307023949</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1086669261956075</v>
+        <v>0.1622545047491004</v>
       </c>
       <c r="C8">
-        <v>0.4904301031709458</v>
+        <v>1.487177404830128</v>
       </c>
       <c r="D8">
-        <v>0.3878951139765857</v>
+        <v>8.202263652189526</v>
       </c>
       <c r="E8">
-        <v>0.6228122622240073</v>
+        <v>2.863959436198342</v>
       </c>
       <c r="F8">
-        <v>0.6321329183393875</v>
+        <v>2.92362286105626</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2057235235663316</v>
+        <v>0.08448834823307437</v>
       </c>
       <c r="C9">
-        <v>0.5787113598729829</v>
+        <v>1.390260216460968</v>
       </c>
       <c r="D9">
-        <v>0.6018584052151003</v>
+        <v>7.363914233767023</v>
       </c>
       <c r="E9">
-        <v>0.775795337196029</v>
+        <v>2.713653300214864</v>
       </c>
       <c r="F9">
-        <v>0.7725533333505138</v>
+        <v>2.773296749308377</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.09557481740626296</v>
+        <v>0.1037379453787874</v>
       </c>
       <c r="C10">
-        <v>0.5068608752529075</v>
+        <v>1.518653016633174</v>
       </c>
       <c r="D10">
-        <v>0.3300462679833336</v>
+        <v>7.970283297256951</v>
       </c>
       <c r="E10">
-        <v>0.5744965343527614</v>
+        <v>2.823169016771216</v>
       </c>
       <c r="F10">
-        <v>0.5863735909272222</v>
+        <v>2.88466950940459</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.123584688813261</v>
+        <v>-0.05287204651734589</v>
       </c>
       <c r="C11">
-        <v>0.6717800043226924</v>
+        <v>1.303960028208192</v>
       </c>
       <c r="D11">
-        <v>0.595920288116768</v>
+        <v>7.512551892089196</v>
       </c>
       <c r="E11">
-        <v>0.7719587347240576</v>
+        <v>2.740903480987464</v>
       </c>
       <c r="F11">
-        <v>0.7907668906393126</v>
+        <v>2.801983048518609</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1072470739083369</v>
+        <v>0.09494813238296555</v>
       </c>
       <c r="C2">
-        <v>0.583924513487991</v>
+        <v>0.5332219804412588</v>
       </c>
       <c r="D2">
-        <v>0.5944036395536997</v>
+        <v>0.4006434568944247</v>
       </c>
       <c r="E2">
-        <v>0.7709757710549013</v>
+        <v>0.6329640249606803</v>
       </c>
       <c r="F2">
-        <v>0.7806389925716273</v>
+        <v>0.6398668578903548</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.573629067650584</v>
+        <v>0.1072470739083369</v>
       </c>
       <c r="C3">
-        <v>0.8880024064378264</v>
+        <v>0.583924513487991</v>
       </c>
       <c r="D3">
-        <v>3.979434659499331</v>
+        <v>0.5944036395536997</v>
       </c>
       <c r="E3">
-        <v>1.994852039500507</v>
+        <v>0.7709757710549013</v>
       </c>
       <c r="F3">
-        <v>1.953538050233822</v>
+        <v>0.7806389925716273</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.228737977167174</v>
+        <v>0.573629067650584</v>
       </c>
       <c r="C4">
-        <v>1.392066633737142</v>
+        <v>0.8880024064378264</v>
       </c>
       <c r="D4">
-        <v>7.304711183963507</v>
+        <v>3.979434659499331</v>
       </c>
       <c r="E4">
-        <v>2.702722920308981</v>
+        <v>1.994852039500507</v>
       </c>
       <c r="F4">
-        <v>2.753551201305114</v>
+        <v>1.953538050233822</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1376631994370348</v>
+        <v>0.228737977167174</v>
       </c>
       <c r="C5">
-        <v>1.217887797378426</v>
+        <v>1.392066633737142</v>
       </c>
       <c r="D5">
-        <v>7.521227355969471</v>
+        <v>7.304711183963507</v>
       </c>
       <c r="E5">
-        <v>2.742485616365101</v>
+        <v>2.702722920308981</v>
       </c>
       <c r="F5">
-        <v>2.80058721592678</v>
+        <v>2.753551201305114</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.256355043509169</v>
+        <v>0.1376631994370348</v>
       </c>
       <c r="C6">
-        <v>1.359960095653506</v>
+        <v>1.217887797378426</v>
       </c>
       <c r="D6">
-        <v>7.005699073826143</v>
+        <v>7.521227355969471</v>
       </c>
       <c r="E6">
-        <v>2.646828115655821</v>
+        <v>2.742485616365101</v>
       </c>
       <c r="F6">
-        <v>2.693591441706439</v>
+        <v>2.80058721592678</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09029628155329977</v>
+        <v>0.256355043509169</v>
       </c>
       <c r="C7">
-        <v>1.369716599985631</v>
+        <v>1.359960095653506</v>
       </c>
       <c r="D7">
-        <v>7.335564264182292</v>
+        <v>7.005699073826143</v>
       </c>
       <c r="E7">
-        <v>2.708424683128976</v>
+        <v>2.646828115655821</v>
       </c>
       <c r="F7">
-        <v>2.767756307023949</v>
+        <v>2.693591441706439</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1622545047491004</v>
+        <v>0.09029628155329977</v>
       </c>
       <c r="C8">
-        <v>1.487177404830128</v>
+        <v>1.369716599985631</v>
       </c>
       <c r="D8">
-        <v>8.202263652189526</v>
+        <v>7.335564264182292</v>
       </c>
       <c r="E8">
-        <v>2.863959436198342</v>
+        <v>2.708424683128976</v>
       </c>
       <c r="F8">
-        <v>2.92362286105626</v>
+        <v>2.767756307023949</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.08448834823307437</v>
+        <v>0.1622545047491004</v>
       </c>
       <c r="C9">
-        <v>1.390260216460968</v>
+        <v>1.487177404830128</v>
       </c>
       <c r="D9">
-        <v>7.363914233767023</v>
+        <v>8.202263652189526</v>
       </c>
       <c r="E9">
-        <v>2.713653300214864</v>
+        <v>2.863959436198342</v>
       </c>
       <c r="F9">
-        <v>2.773296749308377</v>
+        <v>2.92362286105626</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1037379453787874</v>
+        <v>0.08448834823307437</v>
       </c>
       <c r="C10">
-        <v>1.518653016633174</v>
+        <v>1.390260216460968</v>
       </c>
       <c r="D10">
-        <v>7.970283297256951</v>
+        <v>7.363914233767023</v>
       </c>
       <c r="E10">
-        <v>2.823169016771216</v>
+        <v>2.713653300214864</v>
       </c>
       <c r="F10">
-        <v>2.88466950940459</v>
+        <v>2.773296749308377</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.05287204651734589</v>
+        <v>0.1037379453787874</v>
       </c>
       <c r="C11">
-        <v>1.303960028208192</v>
+        <v>1.518653016633174</v>
       </c>
       <c r="D11">
-        <v>7.512551892089196</v>
+        <v>7.970283297256951</v>
       </c>
       <c r="E11">
-        <v>2.740903480987464</v>
+        <v>2.823169016771216</v>
       </c>
       <c r="F11">
-        <v>2.801983048518609</v>
+        <v>2.88466950940459</v>
       </c>
       <c r="G11">
         <v>23</v>
